--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.02680000000001</v>
+        <v>-22.0884</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.5508</v>
+        <v>-12.9497</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.110899999999999</v>
+        <v>-7.963499999999995</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.93519999999999</v>
+        <v>-21.91079999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,18 +642,18 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.032099999999997</v>
+        <v>4.917999999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.422499999999996</v>
+        <v>-8.5518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.38760000000002</v>
+        <v>-22.27420000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -687,10 +687,10 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.36569999999999</v>
+        <v>-14.25759999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.161800000000007</v>
+        <v>-9.286200000000001</v>
       </c>
     </row>
     <row r="19">
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.7887</v>
+        <v>-12.6077</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -723,16 +723,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.2348</v>
+        <v>-21.83559999999998</v>
       </c>
       <c r="B21" t="n">
-        <v>4.848300000000001</v>
+        <v>5.305599999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.913599999999994</v>
+        <v>-7.821699999999996</v>
       </c>
     </row>
     <row r="22">
@@ -740,18 +740,18 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.63690000000001</v>
+        <v>8.557400000000007</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.259299999999998</v>
+        <v>-8.432600000000003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.30319999999998</v>
+        <v>-20.04219999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,18 +768,18 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.411199999999999</v>
+        <v>5.626299999999999</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.773799999999999</v>
+        <v>-6.60439999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.83809999999999</v>
+        <v>-21.8004</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.10139999999997</v>
+        <v>-21.15619999999998</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.604900000000007</v>
+        <v>6.657900000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.289400000000001</v>
+        <v>6.269600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.14979999999997</v>
+        <v>-21.06479999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -900,7 +900,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-8.4056</v>
+        <v>-8.426499999999999</v>
       </c>
     </row>
     <row r="34">
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.48890000000001</v>
+        <v>-13.49270000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.973400000000002</v>
+        <v>8.773399999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.919600000000001</v>
+        <v>8.747299999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.40660000000001</v>
+        <v>-20.16740000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.3976</v>
+        <v>-13.2634</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.617100000000005</v>
+        <v>4.652800000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.897799999999997</v>
+        <v>-7.875799999999997</v>
       </c>
     </row>
     <row r="47">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.1466</v>
+        <v>-12.1928</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.537200000000006</v>
+        <v>5.382900000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,13 +1118,13 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.404100000000001</v>
+        <v>5.2812</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.198200000000003</v>
+        <v>-8.255000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1135,7 +1135,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.6044</v>
+        <v>-13.72909999999998</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.04419999999999</v>
+        <v>-11.4125</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,10 +1160,10 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.274</v>
+        <v>5.164300000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.7981</v>
+        <v>-10.92899999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.16659999999999</v>
+        <v>-20.10539999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>9.689899999999996</v>
+        <v>10.012</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.853400000000002</v>
+        <v>4.791700000000005</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.72430000000001</v>
+        <v>-14.1878</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1222,18 +1222,18 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.527099999999997</v>
+        <v>-8.344899999999996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-20.1606</v>
+        <v>-20.31779999999997</v>
       </c>
       <c r="B57" t="n">
-        <v>8.477000000000006</v>
+        <v>8.442100000000003</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.3891</v>
+        <v>-12.4557</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1247,7 +1247,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.9096</v>
+        <v>-13.2719</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-23.05700000000002</v>
+        <v>-22.96990000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.312299999999993</v>
+        <v>-8.345899999999997</v>
       </c>
     </row>
     <row r="62">
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.6163</v>
+        <v>-10.4686</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.66789999999998</v>
+        <v>-21.7937</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.197099999999995</v>
+        <v>-8.306999999999995</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.9321</v>
+        <v>-12.883</v>
       </c>
       <c r="D66" t="n">
-        <v>-8.002199999999998</v>
+        <v>-7.763600000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59999999999999</v>
+        <v>-21.6225</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.057300000000001</v>
+        <v>4.820800000000002</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.538399999999997</v>
+        <v>4.603699999999995</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.616400000000001</v>
+        <v>-8.520000000000005</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.943300000000002</v>
+        <v>-8.1614</v>
       </c>
     </row>
     <row r="76">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.261299999999997</v>
+        <v>-6.534599999999998</v>
       </c>
     </row>
     <row r="78">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.0293</v>
+        <v>-20.2147</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.83810000000001</v>
+        <v>-12.8693</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.75179999999999</v>
+        <v>-21.83659999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.41769999999999</v>
+        <v>-12.4644</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.057399999999999</v>
+        <v>5.411500000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,13 +1650,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.184899999999996</v>
+        <v>5.566199999999998</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-9.003</v>
+        <v>-9.0731</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.7113</v>
+        <v>-7.794899999999999</v>
       </c>
     </row>
     <row r="89">
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.818599999999995</v>
+        <v>5.108899999999998</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.40749999999998</v>
+        <v>-20.37789999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.3177</v>
+        <v>-10.2098</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.15450000000002</v>
+        <v>-21.22620000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.60379999999999</v>
+        <v>-10.63899999999999</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.15250000000001</v>
+        <v>-10.34440000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.79889999999999</v>
+        <v>-10.9583</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.06330000000001</v>
+        <v>-22.0933</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.934999999999999</v>
+        <v>-7.977899999999997</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.316100000000001</v>
+        <v>6.793800000000007</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.91599999999999</v>
+        <v>-12.2701</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.356699999999996</v>
+        <v>-8.432699999999993</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.05010000000001</v>
+        <v>-22.11950000000001</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
